--- a/AccountData/ApiKey_23072023.xlsx
+++ b/AccountData/ApiKey_23072023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Email</x:t>
   </x:si>
@@ -34,13 +34,22 @@
     <x:t>DriverScan</x:t>
   </x:si>
   <x:si>
-    <x:t>daicev@mail1s.cyou</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{HEkP^]KSq8N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JMGYp0ptxxuz98vXcP9H5Z0He5p4C1Sm</x:t>
+    <x:t>lugced@tempmail1s.cyou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9w}6Z^kg*h8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FuPKvELzduHRXwYgn8CwA25L0NuKeqKe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sehtal@tempmail1s.icu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YbK!etj*|P2^</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9uXJSU8bOQbDibyuSEsBOcQClIkJH3Y0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -437,6 +446,26 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/AccountData/ApiKey_23072023.xlsx
+++ b/AccountData/ApiKey_23072023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Email</x:t>
   </x:si>
@@ -50,6 +50,15 @@
   </x:si>
   <x:si>
     <x:t>9uXJSU8bOQbDibyuSEsBOcQClIkJH3Y0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guzmin@email10p.cyou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+kon6Ps72P)j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ObQgHZVBgepfDpb07HteWOOPMtF3DFxp</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -466,6 +475,26 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
